--- a/Montgomery_Fleet_Equipment_Inventory_FA_PART_2_END.xlsx
+++ b/Montgomery_Fleet_Equipment_Inventory_FA_PART_2_END.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3615440-C9AB-45AB-8360-2CEBBFBB0EC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD2BAB9-3449-4599-BCFF-AF5FE0EE1388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PivotTable (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="PivotTable (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="PivotTable" sheetId="2" r:id="rId3"/>
+    <sheet name="Task6b" sheetId="5" r:id="rId1"/>
+    <sheet name="Task6a" sheetId="4" r:id="rId2"/>
+    <sheet name="Task3&amp;4" sheetId="3" r:id="rId3"/>
     <sheet name="Montgomery_Fleet_Equipment_Inve" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Montgomery_Fleet_Equipment_Inve!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Montgomery_Fleet_Equipment_Inve!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>Department</t>
   </si>
@@ -40,43 +40,76 @@
     <t>Equipment Count</t>
   </si>
   <si>
+    <t>Public Safety SUV</t>
+  </si>
+  <si>
+    <t>Sedan</t>
+  </si>
+  <si>
+    <t>Housing and Community Affairs</t>
+  </si>
+  <si>
+    <t>Pick Up Trucks</t>
+  </si>
+  <si>
+    <t>SUV</t>
+  </si>
+  <si>
+    <t>Human Rights</t>
+  </si>
+  <si>
+    <t>Libraries</t>
+  </si>
+  <si>
     <t>Van</t>
   </si>
   <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>Sedan</t>
-  </si>
-  <si>
-    <t>Pick Up Trucks</t>
+    <t>Medium Duty</t>
+  </si>
+  <si>
+    <t>Liquor Control</t>
+  </si>
+  <si>
+    <t>Heavy Duty</t>
+  </si>
+  <si>
+    <t>Office Of Homeland Security</t>
+  </si>
+  <si>
+    <t>Permitting Services</t>
   </si>
   <si>
     <t>CUV</t>
   </si>
   <si>
-    <t>Public Safety SUV</t>
-  </si>
-  <si>
-    <t>Medium Duty</t>
+    <t>Public Information Office</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Sheriffs Office</t>
+  </si>
+  <si>
+    <t>Public Safety Van</t>
+  </si>
+  <si>
+    <t>Public Safety CUV</t>
+  </si>
+  <si>
+    <t>Public Safety Sedan</t>
   </si>
   <si>
     <t>Public Safety Pick Up Trucks</t>
   </si>
   <si>
-    <t>Public Safety Sedan</t>
-  </si>
-  <si>
-    <t>Public Safety Van</t>
-  </si>
-  <si>
-    <t>Public Safety CUV</t>
-  </si>
-  <si>
-    <t>Public Safety Heavy Duty</t>
-  </si>
-  <si>
-    <t>Heavy Duty</t>
+    <t>State Attorneys Office</t>
+  </si>
+  <si>
+    <t>Technology Services</t>
+  </si>
+  <si>
+    <t>Transportation</t>
   </si>
   <si>
     <t>Transit Bus</t>
@@ -85,48 +118,6 @@
     <t>Off Road Vehicle Equipment</t>
   </si>
   <si>
-    <t>Board of Elections</t>
-  </si>
-  <si>
-    <t>Circuit Court</t>
-  </si>
-  <si>
-    <t>Community Engagement Cluster</t>
-  </si>
-  <si>
-    <t>Community Use of Public Facilities</t>
-  </si>
-  <si>
-    <t>Consumer Protection</t>
-  </si>
-  <si>
-    <t>Correction and Rehabilitation</t>
-  </si>
-  <si>
-    <t>Correction and Rehabilltation</t>
-  </si>
-  <si>
-    <t>County Executives Office</t>
-  </si>
-  <si>
-    <t>Economic Development</t>
-  </si>
-  <si>
-    <t>Environmental Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance </t>
-  </si>
-  <si>
-    <t>Fire and Rescue</t>
-  </si>
-  <si>
-    <t>General Services</t>
-  </si>
-  <si>
-    <t>Health and Human Services</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
@@ -142,20 +133,20 @@
     <t>COUNT</t>
   </si>
   <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Sum of Equipment Count</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,12 +277,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,11 +625,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -707,50 +692,47 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dennis" refreshedDate="44099.60075636574" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="53" xr:uid="{2AF2F53A-7F36-4491-BC4A-DA3E3FC43294}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dennis" refreshedDate="44136.346820254628" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="49" xr:uid="{4AF3A140-6D2C-4EF0-9080-5E3E41F10B33}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Department" numFmtId="0">
-      <sharedItems count="14">
-        <s v="Board of Elections"/>
-        <s v="Circuit Court"/>
-        <s v="Community Engagement Cluster"/>
-        <s v="Community Use of Public Facilities"/>
-        <s v="Consumer Protection"/>
-        <s v="Correction and Rehabilitation"/>
-        <s v="Correction and Rehabilltation"/>
-        <s v="County Executives Office"/>
-        <s v="Economic Development"/>
-        <s v="Environmental Protection"/>
-        <s v="Finance "/>
-        <s v="Fire and Rescue"/>
-        <s v="General Services"/>
-        <s v="Health and Human Services"/>
+      <sharedItems count="12">
+        <s v="Housing and Community Affairs"/>
+        <s v="Human Rights"/>
+        <s v="Libraries"/>
+        <s v="Liquor Control"/>
+        <s v="Office Of Homeland Security"/>
+        <s v="Permitting Services"/>
+        <s v="Public Information Office"/>
+        <s v="Recreation"/>
+        <s v="Sheriffs Office"/>
+        <s v="State Attorneys Office"/>
+        <s v="Technology Services"/>
+        <s v="Transportation"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Equipment Class" numFmtId="0">
-      <sharedItems count="15">
+      <sharedItems count="14">
+        <s v="Pick Up Trucks"/>
+        <s v="SUV"/>
+        <s v="Sedan"/>
         <s v="Van"/>
+        <s v="Medium Duty"/>
+        <s v="Heavy Duty"/>
+        <s v="CUV"/>
         <s v="Off Road Vehicle Equipment"/>
-        <s v="SUV"/>
-        <s v="Pick Up Trucks"/>
-        <s v="Sedan"/>
-        <s v="Public Safety Sedan"/>
         <s v="Public Safety SUV"/>
-        <s v="CUV"/>
-        <s v="Medium Duty"/>
-        <s v="Public Safety Pick Up Trucks"/>
         <s v="Public Safety Van"/>
         <s v="Public Safety CUV"/>
-        <s v="Public Safety Heavy Duty"/>
-        <s v="Heavy Duty"/>
+        <s v="Public Safety Sedan"/>
+        <s v="Public Safety Pick Up Trucks"/>
         <s v="Transit Bus"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Equipment Count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="75"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="379"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -762,66 +744,81 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="53">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="21"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="23"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="8"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
     <x v="4"/>
     <n v="1"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
     <x v="4"/>
-    <x v="4"/>
+    <x v="1"/>
     <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <n v="9"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
+    <n v="27"/>
+  </r>
+  <r>
     <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="3"/>
+    <x v="0"/>
+    <n v="24"/>
   </r>
   <r>
     <x v="5"/>
@@ -830,28 +827,43 @@
   </r>
   <r>
     <x v="5"/>
+    <x v="2"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
     <x v="0"/>
-    <n v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <n v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
     <x v="7"/>
-    <n v="1"/>
+    <x v="1"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="4"/>
-    <n v="2"/>
+    <x v="3"/>
+    <n v="15"/>
   </r>
   <r>
     <x v="7"/>
-    <x v="6"/>
-    <n v="3"/>
+    <x v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="20"/>
   </r>
   <r>
     <x v="8"/>
@@ -859,184 +871,134 @@
     <n v="1"/>
   </r>
   <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="10"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="11"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="12"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="9"/>
     <x v="2"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="248"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="13"/>
+    <n v="379"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="11"/>
     <x v="4"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="11"/>
     <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="8"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="3"/>
-    <n v="33"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="4"/>
-    <n v="3"/>
+    <n v="276"/>
   </r>
   <r>
     <x v="11"/>
     <x v="6"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="9"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="5"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="10"/>
-    <n v="11"/>
+    <n v="5"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="0"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="3"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="12"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="13"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="14"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="10"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="2"/>
-    <n v="21"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="4"/>
-    <n v="31"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="8"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="0"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="7"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="13"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="3"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="7"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="0"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="4"/>
-    <n v="75"/>
+    <n v="37"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B7F9A1D-E312-4539-81DE-00034CC666E3}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7A1308AA-3D80-4F42-B383-5243F67D9E2C}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1049,37 +1011,25 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="7"/>
+      <items count="15">
+        <item x="6"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="13"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="1"/>
         <item sd="0" x="3"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1089,50 +1039,47 @@
     <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="18">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
     </i>
     <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
       <x v="10"/>
     </i>
     <i>
@@ -1143,9 +1090,6 @@
     </i>
     <i>
       <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
     </i>
     <i t="grand">
       <x/>
@@ -1170,11 +1114,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E29F4C4B-60FB-4F90-9DE0-36D9D094765C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EE677FE-6A18-4635-802B-59FC52315CE9}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
+      <items count="13">
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
@@ -1186,9 +1130,7 @@
         <item sd="0" x="8"/>
         <item sd="0" x="9"/>
         <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1202,22 +1144,21 @@
       </autoSortScope>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="16">
+      <items count="15">
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
         <item x="7"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
         <item x="13"/>
-        <item x="8"/>
-        <item x="1"/>
         <item x="3"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1227,45 +1168,66 @@
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="15">
-    <i>
+  <rowItems count="22">
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
       <x v="12"/>
     </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
+    <i r="1">
       <x v="13"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="6"/>
@@ -1293,11 +1255,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1412CFAA-B015-4FF9-98B2-464B7BDF9BF5}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DFF3CB93-81FC-435F-92E4-828DE61736BB}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
+      <items count="13">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1310,8 +1272,6 @@
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1330,45 +1290,39 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="12"/>
-    </i>
+  <rowItems count="13">
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="6"/>
@@ -1396,12 +1350,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C54" totalsRowShown="0">
-  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85EDDD1B-1F13-4EDF-99DB-93A5630E44FF}" name="Table1" displayName="Table1" ref="A1:C50" totalsRowShown="0">
+  <autoFilter ref="A1:C50" xr:uid="{1CA4ECC5-6279-4A15-8A38-E7D7EE8DE5BD}"/>
   <tableColumns count="3">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Department"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Equipment Class"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Equipment Count"/>
+    <tableColumn id="1" xr3:uid="{2286AB74-3ED4-448D-8D2D-98EBE5D91531}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{EA8BC89C-6957-451B-A533-BABD23AB97BD}" name="Equipment Class"/>
+    <tableColumn id="3" xr3:uid="{ABA7CC2D-985E-4090-936C-0C4745B3D7DF}" name="Equipment Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1703,506 +1657,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38F482-B052-4A29-8D3A-197E700C7475}">
-  <dimension ref="A3:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6052FA-6BD2-488E-BFF7-312EE9374099}">
+  <dimension ref="A3:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12</v>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B19" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>52</v>
+      <c r="B20" s="3">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1">
-        <v>531</v>
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DFEBC4-E724-4DBB-8EBB-BB55C8F8C411}">
-  <dimension ref="A3:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F51336F-8582-426B-9936-60B927A491B2}">
+  <dimension ref="A3:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="B12" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1">
-        <v>531</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7A26B1-F44F-41A1-8199-EDF37C5DE3FA}">
-  <dimension ref="A3:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520575EF-7538-4FC8-8A77-E5F40C335153}">
+  <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>38</v>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1">
-        <v>202</v>
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1221</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1">
-        <v>100</v>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <v>96</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1">
-        <v>72</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1">
-        <v>28</v>
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1">
-        <v>531</v>
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2213,212 +2187,212 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2">
-        <f>SUM(C2:C54)</f>
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <f>AVERAGE(C2:C54)</f>
-        <v>10.018867924528301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <f>SUM(Table1[Equipment Count])</f>
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <f>AVERAGE(Table1[Equipment Count])</f>
+        <v>32.285714285714285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <f>MIN(Table1[Equipment Count])</f>
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <f>MIN(C2:C54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <f>MAX(C2:C54)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6">
-        <f>COUNT(C2:C54)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <f>MAX(Table1[Equipment Count])</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <f>COUNT(Table1[Equipment Count])</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2426,208 +2400,208 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
         <v>7</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2635,21 +2609,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2657,10 +2631,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2668,109 +2642,109 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -2778,71 +2752,25 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1048576">
         <f>SUM(C2:C1048575)</f>
-        <v>531</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>